--- a/scenarios/Graphs/data_graphs.xlsx
+++ b/scenarios/Graphs/data_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914EAF7-3B26-4EEB-8BE2-C9846B456D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBFAD5-987A-4E28-A5FF-0A697FE23432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
   <si>
     <t>test AUC score</t>
   </si>
@@ -88,6 +88,27 @@
   <si>
     <t>HL_Test SPEAR CORR score</t>
   </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>HEK293T</t>
+  </si>
+  <si>
+    <t>HCT116</t>
+  </si>
+  <si>
+    <t>HELA</t>
+  </si>
+  <si>
+    <t>HL60</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
 </sst>
 </file>
 
@@ -139,6 +160,5724 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Scenario 1'!$I$1,'Scenario 1'!$J$1,'Scenario 1'!$K$1,'Scenario 1'!$L$1,'Scenario 1'!$M$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Scenario 1'!$I$2,'Scenario 1'!$J$2,'Scenario 1'!$K$2,'Scenario 1'!$L$2,'Scenario 1'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.711780614960703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.491054559475612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80959382179602402</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73809324041536695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73091215733356196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1484-43F2-AB85-10C325F8DDB0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="494770496"/>
+        <c:axId val="494769840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="494770496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494769840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="494769840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>AUC-ROC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494770496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Scenario 2'!$I$1,'Scenario 2'!$J$1,'Scenario 2'!$K$1,'Scenario 2'!$L$1,'Scenario 2'!$M$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Scenario 2'!$I$2,'Scenario 2'!$J$2,'Scenario 2'!$K$2,'Scenario 2'!$L$2,'Scenario 2'!$M$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.713013315276951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45353769037979502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81330536409948995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74840914175912399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76211302632707301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-870B-4B11-9456-848D7FB5CBCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="694629816"/>
+        <c:axId val="694640640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="694629816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694640640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694640640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>AUC-ROC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694629816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario 3'!$J$1:$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario 3'!$J$2:$N$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70913164981056398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47370348949296298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80667203576066304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73883684736973698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78591029928822498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D59-41C0-9B7C-DB40CE022C88}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="694612104"/>
+        <c:axId val="694608824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="694612104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694608824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694608824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>AUC-ROC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694612104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario 4'!$I$1:$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario 4'!$I$2:$M$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64166326354596048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78115604011341799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49238502017961999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73614365203873799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63631517735995302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF41-431E-B351-41C42FE0D9F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="694604560"/>
+        <c:axId val="694608496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="694604560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694608496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694608496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>AUC-ROC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694604560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario 6'!$I$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario 6'!$I$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44475190821527699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54208535803242996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52313393365900596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42448879842334503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33769144091584902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74F6-420A-A087-75BB7185A561}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="694637360"/>
+        <c:axId val="694639000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="694637360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694639000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694639000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Spearman Correlation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694637360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Scenario 7'!$I$2:$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Scenario 7'!$I$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.24897298621478098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58414714784573496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.01160481278885E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41214827829932499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15531345135175201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1997-4777-98CA-F56EFE7F4156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="694635392"/>
+        <c:axId val="694640312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="694635392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694640312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694640312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Spearman Correlation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="694635392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10A7799B-4E86-4ADC-BC30-64BE841EFB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BE74C5-BEBC-4309-8FEC-A4EF9B4B95CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B931EA67-772B-4208-A8DF-41979DD655B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F02983C-670E-4B2D-BAF7-75CC6946CEBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF25AB8-C1D1-4311-8CDD-E7D83E6564EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6321AE-C9A1-483A-A12F-542968B8289D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,15 +6143,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="A1:XFD1048576"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +6167,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.64162296082913195</v>
       </c>
@@ -445,8 +6199,23 @@
       <c r="E2">
         <v>0.65929165594717398</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0.711780614960703</v>
+      </c>
+      <c r="J2">
+        <v>0.491054559475612</v>
+      </c>
+      <c r="K2">
+        <v>0.80959382179602402</v>
+      </c>
+      <c r="L2">
+        <v>0.73809324041536695</v>
+      </c>
+      <c r="M2">
+        <v>0.73091215733356196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.64125641888718399</v>
       </c>
@@ -463,7 +6232,7 @@
         <v>0.67374153160106298</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.66699439521558002</v>
       </c>
@@ -480,7 +6249,7 @@
         <v>0.71440413915330303</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.660224817609669</v>
       </c>
@@ -497,7 +6266,7 @@
         <v>0.69569505188234204</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.66985588815480401</v>
       </c>
@@ -514,7 +6283,7 @@
         <v>0.67571391818883397</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.67122107586811497</v>
       </c>
@@ -531,7 +6300,7 @@
         <v>0.69879655832833099</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.675367716128628</v>
       </c>
@@ -548,7 +6317,7 @@
         <v>0.70874424720578499</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.68239737608416495</v>
       </c>
@@ -565,7 +6334,7 @@
         <v>0.72508075350884704</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.67851492782665801</v>
       </c>
@@ -582,7 +6351,7 @@
         <v>0.73091215733356196</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.68643246861007601</v>
       </c>
@@ -599,7 +6368,7 @@
         <v>0.70116913929622904</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.68314924695494195</v>
       </c>
@@ -616,7 +6385,7 @@
         <v>0.72247949003801804</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.69002332717537596</v>
       </c>
@@ -633,7 +6402,7 @@
         <v>0.705314009661835</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.68543206155869296</v>
       </c>
@@ -650,7 +6419,7 @@
         <v>0.71416116399394003</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.67811766133324902</v>
       </c>
@@ -667,7 +6436,7 @@
         <v>0.70249835634450997</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.68109442026489597</v>
       </c>
@@ -1500,7 +7269,7 @@
         <v>0.67451333504845201</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.70156734352005501</v>
       </c>
@@ -1517,7 +7286,7 @@
         <v>0.69898236286196103</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.69137618592854599</v>
       </c>
@@ -1534,7 +7303,7 @@
         <v>0.69423720092616403</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.70160119923599495</v>
       </c>
@@ -1551,7 +7320,7 @@
         <v>0.69004945259125805</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.70556075241882399</v>
       </c>
@@ -1568,7 +7337,7 @@
         <v>0.703098647914701</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.69621089958355498</v>
       </c>
@@ -1585,7 +7354,7 @@
         <v>0.69543778406654599</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.70792536869461697</v>
       </c>
@@ -1602,7 +7371,7 @@
         <v>0.71274619100706005</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.70023777280270505</v>
       </c>
@@ -1619,7 +7388,7 @@
         <v>0.68258868593316702</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.70015773241068302</v>
       </c>
@@ -1636,7 +7405,7 @@
         <v>0.71624789183317605</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.68796262955192999</v>
       </c>
@@ -1653,7 +7422,7 @@
         <v>0.69742446331075003</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.688632894448445</v>
       </c>
@@ -1670,7 +7439,7 @@
         <v>0.69542349141011295</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.696521667658202</v>
       </c>
@@ -1687,7 +7456,7 @@
         <v>0.71018780550553096</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.69808451012931705</v>
       </c>
@@ -1704,22 +7473,48 @@
         <v>0.70547122888260005</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>MAX(A2:A76)</f>
+        <v>0.711780614960703</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:E77" si="0">MAX(B2:B76)</f>
+        <v>0.491054559475612</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>0.80959382179602402</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="0"/>
+        <v>0.73809324041536695</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>0.73091215733356196</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F61FB70-8DC6-49BC-8807-992096409856}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1735,8 +7530,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.63710292920437095</v>
       </c>
@@ -1752,8 +7562,23 @@
       <c r="E2">
         <v>0.62636137552525495</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0.713013315276951</v>
+      </c>
+      <c r="J2">
+        <v>0.45353769037979502</v>
+      </c>
+      <c r="K2">
+        <v>0.81330536409948995</v>
+      </c>
+      <c r="L2">
+        <v>0.74840914175912399</v>
+      </c>
+      <c r="M2">
+        <v>0.76211302632707301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.656197161599398</v>
       </c>
@@ -1770,7 +7595,7 @@
         <v>0.66530886430551905</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.65951678304161299</v>
       </c>
@@ -1787,7 +7612,7 @@
         <v>0.67557099162450296</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.67690766195948204</v>
       </c>
@@ -1804,7 +7629,7 @@
         <v>0.749464025383757</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.67311210351629702</v>
       </c>
@@ -1821,7 +7646,7 @@
         <v>0.76211302632707301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.68194394432789496</v>
       </c>
@@ -1838,7 +7663,7 @@
         <v>0.70981619643826999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.67547691548986999</v>
       </c>
@@ -1855,7 +7680,7 @@
         <v>0.72909698996655503</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.68994641794783396</v>
       </c>
@@ -1872,7 +7697,7 @@
         <v>0.72633850727496196</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.68151732316748503</v>
       </c>
@@ -1889,7 +7714,7 @@
         <v>0.73194122859674704</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.68245921658264697</v>
       </c>
@@ -1906,7 +7731,7 @@
         <v>0.723680073178401</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.68452989479287296</v>
       </c>
@@ -1923,7 +7748,7 @@
         <v>0.72653860446502505</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.68477686539123805</v>
       </c>
@@ -1940,7 +7765,7 @@
         <v>0.71621930652030996</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.68692053887340698</v>
       </c>
@@ -1957,7 +7782,7 @@
         <v>0.71234599662693299</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.69634710523843801</v>
       </c>
@@ -1974,7 +7799,7 @@
         <v>0.70585713060629396</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.68336921125966699</v>
       </c>
@@ -2807,7 +8632,7 @@
         <v>0.67658577023125499</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.70617426495913804</v>
       </c>
@@ -2824,7 +8649,7 @@
         <v>0.68017322699596905</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.69941662491780598</v>
       </c>
@@ -2841,7 +8666,7 @@
         <v>0.68801989537775399</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.70132917932178895</v>
       </c>
@@ -2858,7 +8683,7 @@
         <v>0.69336534888374302</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.70958234179791402</v>
       </c>
@@ -2875,7 +8700,7 @@
         <v>0.702855672755338</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.70512571625387399</v>
       </c>
@@ -2892,7 +8717,7 @@
         <v>0.691350084326673</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.70611027178507602</v>
       </c>
@@ -2909,7 +8734,7 @@
         <v>0.67973015464654196</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.70496563546983104</v>
       </c>
@@ -2926,7 +8751,7 @@
         <v>0.69070691478718205</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.70640107868616298</v>
       </c>
@@ -2943,7 +8768,7 @@
         <v>0.68797701740845496</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.713013315276951</v>
       </c>
@@ -2960,7 +8785,7 @@
         <v>0.69097847525941103</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.701054419638663</v>
       </c>
@@ -2977,7 +8802,7 @@
         <v>0.70344167166909599</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.70207106960578602</v>
       </c>
@@ -2994,7 +8819,7 @@
         <v>0.68346053797558803</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.70241921595641399</v>
       </c>
@@ -3011,22 +8836,48 @@
         <v>0.68356058657062002</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>MAX(A2:A76)</f>
+        <v>0.713013315276951</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:E77" si="0">MAX(B2:B76)</f>
+        <v>0.45353769037979502</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>0.81330536409948995</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="0"/>
+        <v>0.74840914175912399</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>0.76211302632707301</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EC72D7-D824-469D-B9EC-8855A6D79E67}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3042,8 +8893,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.62444695807370698</v>
       </c>
@@ -3059,8 +8925,23 @@
       <c r="E2">
         <v>0.64787182345710703</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>0.70913164981056398</v>
+      </c>
+      <c r="K2">
+        <v>0.47370348949296298</v>
+      </c>
+      <c r="L2">
+        <v>0.80667203576066304</v>
+      </c>
+      <c r="M2">
+        <v>0.73883684736973698</v>
+      </c>
+      <c r="N2">
+        <v>0.78591029928822498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.64362827598083705</v>
       </c>
@@ -3077,7 +8958,7 @@
         <v>0.62468913472257903</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.65190022544384196</v>
       </c>
@@ -3094,7 +8975,7 @@
         <v>0.66948231998399199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.68493792466418202</v>
       </c>
@@ -3111,7 +8992,7 @@
         <v>0.74904953834719701</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.68957028681466603</v>
       </c>
@@ -3128,7 +9009,7 @@
         <v>0.74480461938655895</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.66528517080502203</v>
       </c>
@@ -3145,7 +9026,7 @@
         <v>0.70468513277877798</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.67340819425744403</v>
       </c>
@@ -3162,7 +9043,7 @@
         <v>0.738201412114455</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.68009460030685398</v>
       </c>
@@ -3179,7 +9060,7 @@
         <v>0.73695795100477302</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.67194124369853103</v>
       </c>
@@ -3196,7 +9077,7 @@
         <v>0.72979733013177805</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.67260524626608598</v>
       </c>
@@ -3213,7 +9094,7 @@
         <v>0.71912071577623404</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.66879168362714003</v>
       </c>
@@ -3230,7 +9111,7 @@
         <v>0.72563816710973805</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.67890143094216704</v>
       </c>
@@ -3247,7 +9128,7 @@
         <v>0.71792013263585097</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.691141935685881</v>
       </c>
@@ -3264,7 +9145,7 @@
         <v>0.74956407397878899</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.68584204840780205</v>
       </c>
@@ -3281,7 +9162,7 @@
         <v>0.73732956007203498</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.69779507311268996</v>
       </c>
@@ -4114,7 +9995,7 @@
         <v>0.74992139038961703</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.70235913673795203</v>
       </c>
@@ -4131,7 +10012,7 @@
         <v>0.72642426321356002</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.69827159720700105</v>
       </c>
@@ -4148,7 +10029,7 @@
         <v>0.70198382071291698</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.70594803832545305</v>
       </c>
@@ -4165,7 +10046,7 @@
         <v>0.73750107194923198</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.70401513135234906</v>
       </c>
@@ -4182,7 +10063,7 @@
         <v>0.73921619072120703</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.70582572721295</v>
       </c>
@@ -4199,7 +10080,7 @@
         <v>0.76588628762541799</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.70435368851175695</v>
       </c>
@@ -4216,7 +10097,7 @@
         <v>0.74466169282222705</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.70544568212418102</v>
       </c>
@@ -4233,7 +10114,7 @@
         <v>0.72711031072235099</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.70321688010771199</v>
       </c>
@@ -4250,7 +10131,7 @@
         <v>0.74933539147585904</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.70913164981056398</v>
       </c>
@@ -4267,7 +10148,7 @@
         <v>0.72638138524426099</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.70427814916867504</v>
       </c>
@@ -4284,7 +10165,7 @@
         <v>0.71594774604807998</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.69948257506966804</v>
       </c>
@@ -4301,7 +10182,7 @@
         <v>0.73351342080438997</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.70685959858471303</v>
       </c>
@@ -4318,22 +10199,48 @@
         <v>0.76409970557127704</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>MAX(A2:A76)</f>
+        <v>0.70913164981056398</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:E77" si="0">MAX(B2:B76)</f>
+        <v>0.47370348949296298</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>0.80667203576066304</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="0"/>
+        <v>0.73883684736973698</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>0.78591029928822498</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17A0C9A-4B1D-4DB2-B9D4-7658DAE0B202}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:E76"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4349,8 +10256,23 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.61153236586247195</v>
       </c>
@@ -4367,8 +10289,23 @@
         <f>AVERAGE(A2:D2)</f>
         <v>0.57804037422323573</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>0.64166326354596048</v>
+      </c>
+      <c r="J2">
+        <v>0.78115604011341799</v>
+      </c>
+      <c r="K2">
+        <v>0.49238502017961999</v>
+      </c>
+      <c r="L2">
+        <v>0.73614365203873799</v>
+      </c>
+      <c r="M2">
+        <v>0.63631517735995302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.61031818944877103</v>
       </c>
@@ -4386,7 +10323,7 @@
         <v>0.58140315095679174</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.60567700948071101</v>
       </c>
@@ -4404,7 +10341,7 @@
         <v>0.59730893485002845</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.65628067491711495</v>
       </c>
@@ -4422,7 +10359,7 @@
         <v>0.60090387818738267</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.67631101783759195</v>
       </c>
@@ -4440,7 +10377,7 @@
         <v>0.60274571680404876</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.69240154636656503</v>
       </c>
@@ -4458,7 +10395,7 @@
         <v>0.61249958841992647</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.68804071911560405</v>
       </c>
@@ -4476,7 +10413,7 @@
         <v>0.61656791028656122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.69952610957025896</v>
       </c>
@@ -4494,7 +10431,7 @@
         <v>0.61734425404457249</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.71612061988186904</v>
       </c>
@@ -4512,7 +10449,7 @@
         <v>0.62623806660332004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.70882709518301301</v>
       </c>
@@ -4530,7 +10467,7 @@
         <v>0.62278800434348125</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.71487935157488502</v>
       </c>
@@ -4548,7 +10485,7 @@
         <v>0.62726092489106278</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.71650123679330602</v>
       </c>
@@ -4566,7 +10503,7 @@
         <v>0.6209772936916117</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.69979340012452595</v>
       </c>
@@ -4584,7 +10521,7 @@
         <v>0.61788627691973397</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.72656357717488596</v>
       </c>
@@ -4602,7 +10539,7 @@
         <v>0.62593771848923829</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.71694148005915703</v>
       </c>
@@ -5484,7 +11421,7 @@
         <v>0.63099601224590496</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.76561388053152302</v>
       </c>
@@ -5502,7 +11439,7 @@
         <v>0.63788124218862285</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.75890525045729595</v>
       </c>
@@ -5520,7 +11457,7 @@
         <v>0.63125768935174642</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.774979693174632</v>
       </c>
@@ -5538,7 +11475,7 @@
         <v>0.63271120970499473</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.76893130705322899</v>
       </c>
@@ -5556,7 +11493,7 @@
         <v>0.62933080353419002</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.78115604011341799</v>
       </c>
@@ -5574,7 +11511,7 @@
         <v>0.6352556681677245</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.77645341960166203</v>
       </c>
@@ -5592,7 +11529,7 @@
         <v>0.63856245422416302</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.77071175241492695</v>
       </c>
@@ -5610,7 +11547,7 @@
         <v>0.63166867960786965</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.77678892367294405</v>
       </c>
@@ -5628,7 +11565,7 @@
         <v>0.63544491805801129</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.77746210884264799</v>
       </c>
@@ -5646,7 +11583,7 @@
         <v>0.62874339031721271</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.76633145286566895</v>
       </c>
@@ -5664,7 +11601,7 @@
         <v>0.62938098228885053</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.77636670135396502</v>
       </c>
@@ -5682,7 +11619,7 @@
         <v>0.63195560860215105</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.77203804572627799</v>
       </c>
@@ -5700,17 +11637,43 @@
         <v>0.64166326354596048</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>MAX(A2:A76)</f>
+        <v>0.78115604011341799</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:E77" si="2">MAX(B2:B76)</f>
+        <v>0.49238502017961999</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0.73614365203873799</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>0.63631517735995302</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>0.64166326354596048</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E590902-4A20-459B-BB35-1317321847ED}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5718,7 +11681,7 @@
     <col min="1" max="5" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5735,7 +11698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.8599182572850903E-2</v>
       </c>
@@ -5751,8 +11714,23 @@
       <c r="E2">
         <v>9.6820597275654896E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.21479481701712799</v>
       </c>
@@ -5768,8 +11746,23 @@
       <c r="E3">
         <v>0.299289076616371</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0.44475190821527699</v>
+      </c>
+      <c r="J3">
+        <v>0.54208535803242996</v>
+      </c>
+      <c r="K3">
+        <v>0.52313393365900596</v>
+      </c>
+      <c r="L3">
+        <v>0.42448879842334503</v>
+      </c>
+      <c r="M3">
+        <v>0.33769144091584902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.23944067842692801</v>
       </c>
@@ -5786,7 +11779,7 @@
         <v>0.31911742154006101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.26482645451775599</v>
       </c>
@@ -5803,7 +11796,7 @@
         <v>0.33769144091584902</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.28703381079553802</v>
       </c>
@@ -5820,7 +11813,7 @@
         <v>0.27540271767757202</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.31900993969149899</v>
       </c>
@@ -5837,7 +11830,7 @@
         <v>0.15238046819263701</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.32158862288298501</v>
       </c>
@@ -5854,7 +11847,7 @@
         <v>0.176390509464532</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.35681831351247301</v>
       </c>
@@ -5871,7 +11864,7 @@
         <v>0.20659983597922399</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.36634978040247501</v>
       </c>
@@ -5888,7 +11881,7 @@
         <v>0.1058317386869</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.36770950929649898</v>
       </c>
@@ -5905,7 +11898,7 @@
         <v>0.202114101119475</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.39254997157634303</v>
       </c>
@@ -5922,7 +11915,7 @@
         <v>0.17614681192951101</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.41524297953968298</v>
       </c>
@@ -5939,7 +11932,7 @@
         <v>0.22986578299917901</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.35511386032880299</v>
       </c>
@@ -5956,7 +11949,7 @@
         <v>0.22945339743034099</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.35971942523716199</v>
       </c>
@@ -5973,7 +11966,7 @@
         <v>9.3266813796414202E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.37460166451288901</v>
       </c>
@@ -6806,7 +12799,7 @@
         <v>0.157913502376967</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.43023397418404602</v>
       </c>
@@ -6823,7 +12816,7 @@
         <v>0.14344516972149801</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.39607623830931099</v>
       </c>
@@ -6840,7 +12833,7 @@
         <v>0.16959598215773999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.40588513586695402</v>
       </c>
@@ -6857,7 +12850,7 @@
         <v>0.179861615804668</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.40673637023120102</v>
       </c>
@@ -6874,7 +12867,7 @@
         <v>0.22001270160886999</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.37207385024028</v>
       </c>
@@ -6891,7 +12884,7 @@
         <v>0.14391806295463999</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.38256150172130898</v>
       </c>
@@ -6908,7 +12901,7 @@
         <v>9.6784259339516301E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.41963885311708599</v>
       </c>
@@ -6925,7 +12918,7 @@
         <v>0.125678085890879</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.42803972369355298</v>
       </c>
@@ -6942,7 +12935,7 @@
         <v>0.193411665477627</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.37709383587430101</v>
       </c>
@@ -6959,7 +12952,7 @@
         <v>0.11040415119248401</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.42777819599802203</v>
       </c>
@@ -6976,7 +12969,7 @@
         <v>0.23661247091298199</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.41202270654699202</v>
       </c>
@@ -6993,7 +12986,7 @@
         <v>0.22740647148638801</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.433487286049622</v>
       </c>
@@ -7010,22 +13003,51 @@
         <v>0.17464628852988001</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>MAX(A2:A76)</f>
+        <v>0.44475190821527699</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:E77" si="0">MAX(B2:B76)</f>
+        <v>0.54208535803242996</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="0"/>
+        <v>0.52313393365900596</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="0"/>
+        <v>0.42448879842334503</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="0"/>
+        <v>0.33769144091584902</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDA619-2C7E-4C9E-B05B-0525C64864ED}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7042,7 +13064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5.3360005214027902E-2</v>
       </c>
@@ -7059,8 +13081,23 @@
         <f>AVERAGE(A2:D2)</f>
         <v>3.9043754346256756E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.16054503074888599</v>
       </c>
@@ -7077,8 +13114,23 @@
         <f t="shared" ref="E3:E66" si="0">AVERAGE(A3:D3)</f>
         <v>5.1640963173961191E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>0.24897298621478098</v>
+      </c>
+      <c r="J3">
+        <v>0.58414714784573496</v>
+      </c>
+      <c r="K3">
+        <v>-4.01160481278885E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.41214827829932499</v>
+      </c>
+      <c r="M3">
+        <v>0.15531345135175201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.283559392802057</v>
       </c>
@@ -7096,7 +13148,7 @@
         <v>0.15547801145829787</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.32025365751513102</v>
       </c>
@@ -7114,7 +13166,7 @@
         <v>0.13450501321661312</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.360771141135872</v>
       </c>
@@ -7132,7 +13184,7 @@
         <v>0.15710394889597046</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.40081267354617001</v>
       </c>
@@ -7150,7 +13202,7 @@
         <v>0.18131584528846376</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.39060823393024302</v>
       </c>
@@ -7168,7 +13220,7 @@
         <v>0.1720285796909424</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.43670917081205202</v>
       </c>
@@ -7186,7 +13238,7 @@
         <v>0.18564289698451003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.47479744443840299</v>
       </c>
@@ -7204,7 +13256,7 @@
         <v>0.20728310574571299</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.41448397010322102</v>
       </c>
@@ -7222,7 +13274,7 @@
         <v>0.1716037542109965</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.44299783527165898</v>
       </c>
@@ -7240,7 +13292,7 @@
         <v>0.17621787138030975</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.44664335176783798</v>
       </c>
@@ -7258,7 +13310,7 @@
         <v>0.19983864429475373</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.50875708530304597</v>
       </c>
@@ -7276,7 +13328,7 @@
         <v>0.21423777864524926</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.478140401221893</v>
       </c>
@@ -7294,7 +13346,7 @@
         <v>0.20289753943945463</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.52531540347962502</v>
       </c>
@@ -8176,7 +14228,7 @@
         <v>0.24701831398659779</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0.51330243372949902</v>
       </c>
@@ -8194,7 +14246,7 @@
         <v>0.24149228998629027</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0.52735934301689102</v>
       </c>
@@ -8212,7 +14264,7 @@
         <v>0.24770129712495453</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0.51709283379678495</v>
       </c>
@@ -8230,7 +14282,7 @@
         <v>0.24722373312894469</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0.54465604016022695</v>
       </c>
@@ -8248,7 +14300,7 @@
         <v>0.24631425527555453</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0.53968297827158096</v>
       </c>
@@ -8266,7 +14318,7 @@
         <v>0.24007236381547642</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0.55575072568462003</v>
       </c>
@@ -8284,7 +14336,7 @@
         <v>0.24510766898074848</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0.54075485590581696</v>
       </c>
@@ -8302,7 +14354,7 @@
         <v>0.2422869706560179</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0.52547808084768999</v>
       </c>
@@ -8320,7 +14372,7 @@
         <v>0.23025380272018936</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0.48887550672943603</v>
       </c>
@@ -8338,7 +14390,7 @@
         <v>0.22118283993312798</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0.50955777526053903</v>
       </c>
@@ -8356,7 +14408,7 @@
         <v>0.21549371721033894</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0.58414714784573496</v>
       </c>
@@ -8374,7 +14426,7 @@
         <v>0.24897298621478098</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0.56165208665434796</v>
       </c>
@@ -8392,7 +14444,33 @@
         <v>0.24213753351550679</v>
       </c>
     </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>MAX(A2:A76)</f>
+        <v>0.58414714784573496</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:E77" si="2">MAX(B2:B76)</f>
+        <v>-4.01160481278885E-2</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="2"/>
+        <v>0.41214827829932499</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="2"/>
+        <v>0.15531345135175201</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>0.24897298621478098</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/scenarios/Graphs/data_graphs.xlsx
+++ b/scenarios/Graphs/data_graphs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIOMEDICAL ENGINEERING\GP\GP\scenarios\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFBFAD5-987A-4E28-A5FF-0A697FE23432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCD931B-EBA5-4E3F-B230-B6B9FCB3AB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Scenario 4" sheetId="4" r:id="rId4"/>
     <sheet name="Scenario 6" sheetId="5" r:id="rId5"/>
     <sheet name="Scenario 7" sheetId="6" r:id="rId6"/>
+    <sheet name="1st three scenarios" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>test AUC score</t>
   </si>
@@ -108,6 +109,15 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>ptCNN</t>
+  </si>
+  <si>
+    <t>pt+Aug+CNN</t>
   </si>
 </sst>
 </file>
@@ -2376,6 +2386,584 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st three scenarios'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st three scenarios'!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st three scenarios'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.711780614960703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80959382179602402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.491054559475612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73809324041536695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73091215733356196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9846-40B7-9C3E-369F9F61BD19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st three scenarios'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ptCNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st three scenarios'!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st three scenarios'!$G$3:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.713013315276951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81330536409948995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45353769037979502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74840914175912399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76211302632707301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9846-40B7-9C3E-369F9F61BD19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1st three scenarios'!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pt+Aug+CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1st three scenarios'!$E$3:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>ALL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HCT116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HEK293T</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HELA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HL60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1st three scenarios'!$H$3:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70913164981056398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80667203576066304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47370348949296298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73883684736973698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78591029928822498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9846-40B7-9C3E-369F9F61BD19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="551151216"/>
+        <c:axId val="551151872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="551151216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Dataset</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551151872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551151872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>ROC-AUC Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="551151216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2616,6 +3204,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5132,6 +5760,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5860,6 +6991,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6321AE-C9A1-483A-A12F-542968B8289D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD2CC5C-DBB9-4B25-A684-1E574FA78ACB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6146,7 +7318,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="M2" activeCellId="4" sqref="I2 J2 K2 L2 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7509,7 +8681,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="M2" activeCellId="4" sqref="I2 J2 K2 L2 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8872,7 +10044,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="J2" sqref="J2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13038,8 +14210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFDA619-2C7E-4C9E-B05B-0525C64864ED}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="I2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14473,4 +15645,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D2192-4685-4A0C-AB5E-BE5EBC9F449A}">
+  <dimension ref="E2:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>0.711780614960703</v>
+      </c>
+      <c r="G3">
+        <v>0.713013315276951</v>
+      </c>
+      <c r="H3">
+        <v>0.70913164981056398</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>0.80959382179602402</v>
+      </c>
+      <c r="G4">
+        <v>0.81330536409948995</v>
+      </c>
+      <c r="H4">
+        <v>0.80667203576066304</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5">
+        <v>0.491054559475612</v>
+      </c>
+      <c r="G5">
+        <v>0.45353769037979502</v>
+      </c>
+      <c r="H5">
+        <v>0.47370348949296298</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>0.73809324041536695</v>
+      </c>
+      <c r="G6">
+        <v>0.74840914175912399</v>
+      </c>
+      <c r="H6">
+        <v>0.73883684736973698</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>0.73091215733356196</v>
+      </c>
+      <c r="G7">
+        <v>0.76211302632707301</v>
+      </c>
+      <c r="H7">
+        <v>0.78591029928822498</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/scenarios/Graphs/data_graphs.xlsx
+++ b/scenarios/Graphs/data_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BIOMEDICAL ENGINEERING\GP\GP\scenarios\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCD931B-EBA5-4E3F-B230-B6B9FCB3AB16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633B96DB-7A14-4F38-B353-5C72D3CA0FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario 1" sheetId="1" r:id="rId1"/>
@@ -1343,7 +1343,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.64166326354596048</c:v>
+                  <c:v>0.64166326354596004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.78115604011341799</c:v>
@@ -2081,7 +2081,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.24897298621478098</c:v>
+                  <c:v>0.24897298621478101</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.58414714784573496</c:v>
@@ -7317,8 +7317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" activeCellId="4" sqref="I2 J2 K2 L2 M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8681,7 +8681,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" activeCellId="4" sqref="I2 J2 K2 L2 M2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10044,7 +10044,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11407,7 +11407,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11462,7 +11462,7 @@
         <v>0.57804037422323573</v>
       </c>
       <c r="I2">
-        <v>0.64166326354596048</v>
+        <v>0.64166326354596004</v>
       </c>
       <c r="J2">
         <v>0.78115604011341799</v>
@@ -12845,7 +12845,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14211,7 +14211,7 @@
   <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="I2:M3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14287,7 +14287,7 @@
         <v>5.1640963173961191E-2</v>
       </c>
       <c r="I3">
-        <v>0.24897298621478098</v>
+        <v>0.24897298621478101</v>
       </c>
       <c r="J3">
         <v>0.58414714784573496</v>
@@ -15651,7 +15651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68D2192-4685-4A0C-AB5E-BE5EBC9F449A}">
   <dimension ref="E2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
